--- a/02_Project_Output/01_Board_Output/02_BoM/BoM.xlsx
+++ b/02_Project_Output/01_Board_Output/02_BoM/BoM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Antonio\Mi unidad\PROYECTOS\03_RGB_LED_STRIP_DRIVER\02_Project_Output\01_Board_Output\02_BoM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA0B978-F653-41F5-B167-1288D6FEEEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3660D8F-D553-4DFB-A917-046E3437288F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D10B553-CDA4-4B32-B265-EEB60C7AF05D}"/>
   </bookViews>
@@ -56,12 +56,6 @@
     <t>D1</t>
   </si>
   <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>ESP-12S</t>
-  </si>
-  <si>
     <t>U3</t>
   </si>
   <si>
@@ -104,15 +98,6 @@
     <t>S1, S2</t>
   </si>
   <si>
-    <t>RF Solutions</t>
-  </si>
-  <si>
-    <t>RF TXRX MOD WIFI TRACE ANT SMD</t>
-  </si>
-  <si>
-    <t>https://www.mouser.es/ProductDetail/RF-Solutions/ESP-12S?qs=UkDUCjYnTB27YArJ5wHUxg%3D%3D&amp;utm_id=9882080341&amp;gad_source=1&amp;gclid=CjwKCAjwkuqvBhAQEiwA65XxQHYehLbOjojUiZLUcVNnW909T3apZbYMxA4rLnsicX5dcOYHE8FEWBoCw64QAvD_BwE</t>
-  </si>
-  <si>
     <t>UMW</t>
   </si>
   <si>
@@ -216,6 +201,21 @@
   </si>
   <si>
     <t>https://www.digikey.es/es/products/detail/samsung-electro-mechanics/CL10E104KC8VPNC/20498486</t>
+  </si>
+  <si>
+    <t>Espressif Systems</t>
+  </si>
+  <si>
+    <t>ESP32-C6-MINI-1-N4</t>
+  </si>
+  <si>
+    <t>RF TXRX MODULE BT PCB TRACE SMD</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/es/products/detail/espressif-systems/ESP32-C6-MINI-1-N4/17885796</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,13 +625,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -640,18 +640,18 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -660,18 +660,18 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
         <v>48</v>
       </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -680,18 +680,18 @@
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -700,18 +700,18 @@
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -720,162 +720,162 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1" xr:uid="{361C21A1-8397-45E1-9481-8F7FAA58C11E}"/>
-    <hyperlink ref="F7" r:id="rId2" xr:uid="{8654AB77-05C9-47E0-ACEC-5B2DE3C31FC9}"/>
-    <hyperlink ref="F8" r:id="rId3" xr:uid="{D450EE7D-9E57-45D0-B485-C642EDA86D7E}"/>
-    <hyperlink ref="F9" r:id="rId4" xr:uid="{3EB8DC4B-00E8-4932-A814-278E913D634C}"/>
-    <hyperlink ref="F10" r:id="rId5" xr:uid="{1BF8D52F-33E7-4A6B-8286-7110E507327F}"/>
-    <hyperlink ref="F11" r:id="rId6" xr:uid="{412733B6-AD70-41B4-AEF3-0E32FD00FF16}"/>
-    <hyperlink ref="F12" r:id="rId7" xr:uid="{47308AF9-373E-455C-BBD3-3933EE0559BA}"/>
-    <hyperlink ref="F4" r:id="rId8" xr:uid="{59EA9890-EBF1-44FD-A1E7-9A2A495F990E}"/>
-    <hyperlink ref="F5" r:id="rId9" xr:uid="{96D5822C-40A3-4777-A516-4B35012F3A24}"/>
-    <hyperlink ref="F3" r:id="rId10" xr:uid="{1B4B75FD-FCC2-48CA-876A-EB7FE9C14404}"/>
-    <hyperlink ref="F2" r:id="rId11" xr:uid="{6B0A1752-62CF-4632-BD2B-C9572C0F09E2}"/>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{8654AB77-05C9-47E0-ACEC-5B2DE3C31FC9}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{D450EE7D-9E57-45D0-B485-C642EDA86D7E}"/>
+    <hyperlink ref="F9" r:id="rId3" xr:uid="{3EB8DC4B-00E8-4932-A814-278E913D634C}"/>
+    <hyperlink ref="F10" r:id="rId4" xr:uid="{1BF8D52F-33E7-4A6B-8286-7110E507327F}"/>
+    <hyperlink ref="F11" r:id="rId5" xr:uid="{412733B6-AD70-41B4-AEF3-0E32FD00FF16}"/>
+    <hyperlink ref="F12" r:id="rId6" xr:uid="{47308AF9-373E-455C-BBD3-3933EE0559BA}"/>
+    <hyperlink ref="F4" r:id="rId7" xr:uid="{59EA9890-EBF1-44FD-A1E7-9A2A495F990E}"/>
+    <hyperlink ref="F5" r:id="rId8" xr:uid="{96D5822C-40A3-4777-A516-4B35012F3A24}"/>
+    <hyperlink ref="F3" r:id="rId9" xr:uid="{1B4B75FD-FCC2-48CA-876A-EB7FE9C14404}"/>
+    <hyperlink ref="F2" r:id="rId10" xr:uid="{6B0A1752-62CF-4632-BD2B-C9572C0F09E2}"/>
+    <hyperlink ref="F6" r:id="rId11" xr:uid="{79BB95EB-757D-45D2-9AC3-161B6C8E6DF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/02_Project_Output/01_Board_Output/02_BoM/BoM.xlsx
+++ b/02_Project_Output/01_Board_Output/02_BoM/BoM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Antonio\Mi unidad\PROYECTOS\03_RGB_LED_STRIP_DRIVER\02_Project_Output\01_Board_Output\02_BoM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3660D8F-D553-4DFB-A917-046E3437288F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E960F4E6-B8CE-4E7D-8392-4A89740BFFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D10B553-CDA4-4B32-B265-EEB60C7AF05D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>References</t>
   </si>
@@ -44,21 +44,9 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>C1, C2</t>
-  </si>
-  <si>
-    <t>C3, C4</t>
-  </si>
-  <si>
-    <t>R1, R2, R3, R4, R5, R6, R7</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
-    <t>U3</t>
-  </si>
-  <si>
     <t>AMS1117CD-3.3</t>
   </si>
   <si>
@@ -80,9 +68,6 @@
     <t>J3</t>
   </si>
   <si>
-    <t>20021121-00006C1LF</t>
-  </si>
-  <si>
     <t>Manufacter</t>
   </si>
   <si>
@@ -140,24 +125,6 @@
     <t>JST Sales America</t>
   </si>
   <si>
-    <t>S4B-ZR-SM4A-TF</t>
-  </si>
-  <si>
-    <t>CONN HEADER SMD R/A 4POS 1.5MM</t>
-  </si>
-  <si>
-    <t>https://www.digikey.es/es/products/detail/jst-sales-america-inc/S4B-ZR-SM4A-TF/926602?s=N4IgTCBcDaIMoBYBCBaAWgJRXAsgggiALoC%2BQA</t>
-  </si>
-  <si>
-    <t>Amphenol ICC (FCI)</t>
-  </si>
-  <si>
-    <t>CONN HEADER SMD 6POS 1.27MM</t>
-  </si>
-  <si>
-    <t>https://www.digikey.es/es/products/detail/amphenol-cs-fci/20021121-00006C1LF/4570196?s=N4IgTCBcDa4AxzARicgtAhA2AwkgMgGIgC6AvkA</t>
-  </si>
-  <si>
     <t>Vishay General Semiconductor</t>
   </si>
   <si>
@@ -216,6 +183,36 @@
   </si>
   <si>
     <t>https://www.digikey.es/es/products/detail/espressif-systems/ESP32-C6-MINI-1-N4/17885796</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2, C3</t>
+  </si>
+  <si>
+    <t>R1, R2, R3, R4, R5, R6</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>CONN HEADER R/A 4POS 2.5MM</t>
+  </si>
+  <si>
+    <t>S4B-XH-A</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/es/products/detail/jst-sales-america-inc/S4B-XH-A/1651041</t>
+  </si>
+  <si>
+    <t>Würth Elektronik</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 4POS 2.54MM</t>
+  </si>
+  <si>
+    <t>https://www.digikey.es/es/products/detail/w%C3%BCrth-elektronik/61300411121/4846827?s=N4IgTCBcDaIGwEYDMAGFAWBWwJAXQF8g</t>
   </si>
 </sst>
 </file>
@@ -268,10 +265,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -610,7 +613,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,13 +628,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -640,227 +643,227 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="3">
         <v>2</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3">
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4">
+        <v>51</v>
+      </c>
+      <c r="E4" s="3">
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6">
+        <v>47</v>
+      </c>
+      <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
+        <v>52</v>
+      </c>
+      <c r="E7" s="3">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
         <v>3</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
+        <v>56</v>
+      </c>
+      <c r="B12" s="4">
+        <v>61300411121</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -869,13 +872,13 @@
     <hyperlink ref="F8" r:id="rId2" xr:uid="{D450EE7D-9E57-45D0-B485-C642EDA86D7E}"/>
     <hyperlink ref="F9" r:id="rId3" xr:uid="{3EB8DC4B-00E8-4932-A814-278E913D634C}"/>
     <hyperlink ref="F10" r:id="rId4" xr:uid="{1BF8D52F-33E7-4A6B-8286-7110E507327F}"/>
-    <hyperlink ref="F11" r:id="rId5" xr:uid="{412733B6-AD70-41B4-AEF3-0E32FD00FF16}"/>
-    <hyperlink ref="F12" r:id="rId6" xr:uid="{47308AF9-373E-455C-BBD3-3933EE0559BA}"/>
-    <hyperlink ref="F4" r:id="rId7" xr:uid="{59EA9890-EBF1-44FD-A1E7-9A2A495F990E}"/>
-    <hyperlink ref="F5" r:id="rId8" xr:uid="{96D5822C-40A3-4777-A516-4B35012F3A24}"/>
-    <hyperlink ref="F3" r:id="rId9" xr:uid="{1B4B75FD-FCC2-48CA-876A-EB7FE9C14404}"/>
-    <hyperlink ref="F2" r:id="rId10" xr:uid="{6B0A1752-62CF-4632-BD2B-C9572C0F09E2}"/>
-    <hyperlink ref="F6" r:id="rId11" xr:uid="{79BB95EB-757D-45D2-9AC3-161B6C8E6DF4}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{59EA9890-EBF1-44FD-A1E7-9A2A495F990E}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{96D5822C-40A3-4777-A516-4B35012F3A24}"/>
+    <hyperlink ref="F3" r:id="rId7" xr:uid="{1B4B75FD-FCC2-48CA-876A-EB7FE9C14404}"/>
+    <hyperlink ref="F2" r:id="rId8" xr:uid="{6B0A1752-62CF-4632-BD2B-C9572C0F09E2}"/>
+    <hyperlink ref="F6" r:id="rId9" xr:uid="{79BB95EB-757D-45D2-9AC3-161B6C8E6DF4}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{21843D97-2D63-4DD0-B093-57D81808C529}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{B0FD2B3A-1BED-47F2-89B3-1BAB8221063E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
